--- a/D Boxes 01.xlsx
+++ b/D Boxes 01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\02-Work\03-GraphicsWork\01 CNC Working\07 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\02-Work\03-GraphicsWork\01 CNC Working\07 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="13" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="D0010145" sheetId="8" r:id="rId6"/>
     <sheet name="D0010157" sheetId="14" r:id="rId7"/>
     <sheet name="D0010158" sheetId="15" r:id="rId8"/>
+    <sheet name="D0010159" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$C$1</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="61">
   <si>
     <t>نوع الخشب المستخدم</t>
   </si>
@@ -211,6 +212,12 @@
   </si>
   <si>
     <t>علبة كوسترات</t>
+  </si>
+  <si>
+    <t>D0010159</t>
+  </si>
+  <si>
+    <t>علبة حلويات A</t>
   </si>
 </sst>
 </file>
@@ -7235,8 +7242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView rightToLeft="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7599,4 +7606,374 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="17" width="17.7109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="20">
+        <f>D6/D8</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F2" s="22">
+        <f>E2*D4</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="G2" s="52">
+        <v>3</v>
+      </c>
+      <c r="H2" s="33">
+        <v>100</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="37">
+        <f>H2*I2</f>
+        <v>20</v>
+      </c>
+      <c r="K2" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="43">
+        <f>K2*H2</f>
+        <v>60</v>
+      </c>
+      <c r="M2" s="39">
+        <f>F2+J2</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="N2" s="21">
+        <f>L2+F2</f>
+        <v>96.666666666666657</v>
+      </c>
+      <c r="O2" s="15">
+        <f>M10/G2</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="P2" s="17">
+        <f>N10/G2</f>
+        <v>32.222222222222221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="49">
+        <f>P10-O10</f>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="50">
+        <f>M2+M4+M6+M8</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="N10" s="51">
+        <f>N2+N4+N6+N8</f>
+        <v>96.666666666666657</v>
+      </c>
+      <c r="O10" s="8">
+        <f>O2+O4+O6+O8</f>
+        <v>22.388888888888889</v>
+      </c>
+      <c r="P10" s="23">
+        <f>P2+P4+P6+P8</f>
+        <v>35.722222222222221</v>
+      </c>
+      <c r="Q10" s="49">
+        <f>Q8*G2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/D Boxes 01.xlsx
+++ b/D Boxes 01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\02-Work\03-GraphicsWork\01 CNC Working\07 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\02-Work\03-GraphicsWork\01 CNC Working\07 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="61">
   <si>
     <t>نوع الخشب المستخدم</t>
   </si>
@@ -1287,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:XFD1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,6 +1986,345 @@
       <c r="Q21" s="49">
         <f>Q19*G13</f>
         <v>112.00000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="20">
+        <f>D28/D30</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F24" s="22">
+        <f>E24*D26</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G24" s="52">
+        <v>20</v>
+      </c>
+      <c r="H24" s="33">
+        <v>60</v>
+      </c>
+      <c r="I24" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="37">
+        <f>H24*I24</f>
+        <v>12</v>
+      </c>
+      <c r="K24" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="L24" s="43">
+        <f>K24*H24</f>
+        <v>36</v>
+      </c>
+      <c r="M24" s="39">
+        <f>F24+J24</f>
+        <v>85.333333333333329</v>
+      </c>
+      <c r="N24" s="21">
+        <f>L24+F24</f>
+        <v>109.33333333333333</v>
+      </c>
+      <c r="O24" s="15">
+        <f>M32/G24</f>
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="P24" s="17">
+        <f>N32/G24</f>
+        <v>5.4666666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="53">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="10">
+        <v>110</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="49">
+        <f>P32-O32</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="50">
+        <f>M24+M26+M28+M30</f>
+        <v>85.333333333333329</v>
+      </c>
+      <c r="N32" s="51">
+        <f>N24+N26+N28+N30</f>
+        <v>109.33333333333333</v>
+      </c>
+      <c r="O32" s="8">
+        <f>O24+O26+O28+O30</f>
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="P32" s="23">
+        <f>P24+P26+P28+P30</f>
+        <v>7.4666666666666668</v>
+      </c>
+      <c r="Q32" s="49">
+        <f>Q30*G24</f>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -7612,7 +7951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/D Boxes 01.xlsx
+++ b/D Boxes 01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\02-Work\03-GraphicsWork\01 CNC Working\07 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\02-Work\03-GraphicsWork\01 CNC Working\07 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="62">
   <si>
     <t>نوع الخشب المستخدم</t>
   </si>
@@ -219,6 +219,9 @@
   <si>
     <t>علبة حلويات A</t>
   </si>
+  <si>
+    <t>سعر البيع</t>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -867,6 +876,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -6873,8 +6888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7579,10 +7594,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P5" sqref="A1:XFD1048576"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7598,10 +7613,11 @@
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="17" width="17.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="19.140625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -7649,7 +7665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -7701,7 +7717,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7729,7 +7745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7757,7 +7773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7785,7 +7801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7813,7 +7829,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7843,8 +7859,11 @@
       <c r="Q7" s="48" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -7875,8 +7894,11 @@
         <f>P10-O10</f>
         <v>5.0000000000000018</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -7905,7 +7927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7939,7 +7961,7 @@
         <v>40.000000000000014</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N11" s="4"/>
     </row>
   </sheetData>
